--- a/sa2020_ccd_housing_update.xlsx
+++ b/sa2020_ccd_housing_update.xlsx
@@ -21,16 +21,17 @@
     <sheet name="VALUE" sheetId="12" r:id="rId12"/>
     <sheet name="MORTGAGE STATUS" sheetId="13" r:id="rId13"/>
     <sheet name="SELECTED MONTHLY OWNER COSTS (" sheetId="14" r:id="rId14"/>
-    <sheet name="SELECTED MONTHLY OWNER COSTS A" sheetId="15" r:id="rId15"/>
-    <sheet name="GROSS RENT" sheetId="16" r:id="rId16"/>
-    <sheet name="GROSS RENT AS A PERCENTAGE OF " sheetId="17" r:id="rId17"/>
+    <sheet name="MONTHLY COST W MORTGAGE" sheetId="15" r:id="rId15"/>
+    <sheet name="MONTHLY COST WO MORTGAGE" sheetId="16" r:id="rId16"/>
+    <sheet name="GROSS RENT" sheetId="17" r:id="rId17"/>
+    <sheet name="GROSS RENT AS A PERCENTAGE OF " sheetId="18" r:id="rId18"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="587" uniqueCount="437">
   <si>
     <t>Total housing units counts</t>
   </si>
@@ -1163,6 +1164,90 @@
     <t>$1,000 or more moa percent</t>
   </si>
   <si>
+    <t>Housing units with a mortgage (excluding units where SMOCAPI cannot be computed) counts</t>
+  </si>
+  <si>
+    <t>Housing units with a mortgage (excluding units where SMOCAPI cannot be computed) counts percent</t>
+  </si>
+  <si>
+    <t>Housing units with a mortgage (excluding units where SMOCAPI cannot be computed) moe</t>
+  </si>
+  <si>
+    <t>Housing units with a mortgage (excluding units where SMOCAPI cannot be computed) moa percent</t>
+  </si>
+  <si>
+    <t>Less than 20.0 percent counts</t>
+  </si>
+  <si>
+    <t>Less than 20.0 percent counts percent</t>
+  </si>
+  <si>
+    <t>Less than 20.0 percent moe</t>
+  </si>
+  <si>
+    <t>Less than 20.0 percent moa percent</t>
+  </si>
+  <si>
+    <t>20.0 to 24.9 percent counts</t>
+  </si>
+  <si>
+    <t>20.0 to 24.9 percent counts percent</t>
+  </si>
+  <si>
+    <t>20.0 to 24.9 percent moe</t>
+  </si>
+  <si>
+    <t>20.0 to 24.9 percent moa percent</t>
+  </si>
+  <si>
+    <t>25.0 to 29.9 percent counts</t>
+  </si>
+  <si>
+    <t>25.0 to 29.9 percent counts percent</t>
+  </si>
+  <si>
+    <t>25.0 to 29.9 percent moe</t>
+  </si>
+  <si>
+    <t>25.0 to 29.9 percent moa percent</t>
+  </si>
+  <si>
+    <t>30.0 to 34.9 percent counts</t>
+  </si>
+  <si>
+    <t>30.0 to 34.9 percent counts percent</t>
+  </si>
+  <si>
+    <t>30.0 to 34.9 percent moe</t>
+  </si>
+  <si>
+    <t>30.0 to 34.9 percent moa percent</t>
+  </si>
+  <si>
+    <t>35.0 percent or more counts</t>
+  </si>
+  <si>
+    <t>35.0 percent or more counts percent</t>
+  </si>
+  <si>
+    <t>35.0 percent or more moe</t>
+  </si>
+  <si>
+    <t>35.0 percent or more moa percent</t>
+  </si>
+  <si>
+    <t>Not computed counts</t>
+  </si>
+  <si>
+    <t>Not computed counts percent</t>
+  </si>
+  <si>
+    <t>Not computed moe</t>
+  </si>
+  <si>
+    <t>Not computed moa percent</t>
+  </si>
+  <si>
     <t>Housing unit without a mortgage (excluding units where SMOCAPI cannot be computed) counts</t>
   </si>
   <si>
@@ -1209,66 +1294,6 @@
   </si>
   <si>
     <t>15.0 to 19.9 percent moa percent</t>
-  </si>
-  <si>
-    <t>20.0 to 24.9 percent counts</t>
-  </si>
-  <si>
-    <t>20.0 to 24.9 percent counts percent</t>
-  </si>
-  <si>
-    <t>20.0 to 24.9 percent moe</t>
-  </si>
-  <si>
-    <t>20.0 to 24.9 percent moa percent</t>
-  </si>
-  <si>
-    <t>25.0 to 29.9 percent counts</t>
-  </si>
-  <si>
-    <t>25.0 to 29.9 percent counts percent</t>
-  </si>
-  <si>
-    <t>25.0 to 29.9 percent moe</t>
-  </si>
-  <si>
-    <t>25.0 to 29.9 percent moa percent</t>
-  </si>
-  <si>
-    <t>30.0 to 34.9 percent counts</t>
-  </si>
-  <si>
-    <t>30.0 to 34.9 percent counts percent</t>
-  </si>
-  <si>
-    <t>30.0 to 34.9 percent moe</t>
-  </si>
-  <si>
-    <t>30.0 to 34.9 percent moa percent</t>
-  </si>
-  <si>
-    <t>35.0 percent or more counts</t>
-  </si>
-  <si>
-    <t>35.0 percent or more counts percent</t>
-  </si>
-  <si>
-    <t>35.0 percent or more moe</t>
-  </si>
-  <si>
-    <t>35.0 percent or more moa percent</t>
-  </si>
-  <si>
-    <t>Not computed counts</t>
-  </si>
-  <si>
-    <t>Not computed counts percent</t>
-  </si>
-  <si>
-    <t>Not computed moe</t>
-  </si>
-  <si>
-    <t>Not computed moa percent</t>
   </si>
   <si>
     <t>Occupied units paying rent counts</t>
@@ -8498,6 +8523,1118 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:12">
+      <c r="B1" s="1">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="1" t="s">
+        <v>377</v>
+      </c>
+      <c r="B2">
+        <v>82595.99000000001</v>
+      </c>
+      <c r="C2">
+        <v>13155.18</v>
+      </c>
+      <c r="D2">
+        <v>12634.73</v>
+      </c>
+      <c r="E2">
+        <v>14404.12</v>
+      </c>
+      <c r="F2">
+        <v>14245.63</v>
+      </c>
+      <c r="G2">
+        <v>8420.98</v>
+      </c>
+      <c r="H2">
+        <v>16814.85</v>
+      </c>
+      <c r="I2">
+        <v>18968.09</v>
+      </c>
+      <c r="J2">
+        <v>14350.04</v>
+      </c>
+      <c r="K2">
+        <v>18198.97</v>
+      </c>
+      <c r="L2">
+        <v>22049.41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B3">
+        <v>0.35</v>
+      </c>
+      <c r="C3">
+        <v>0.06</v>
+      </c>
+      <c r="D3">
+        <v>0.05</v>
+      </c>
+      <c r="E3">
+        <v>0.06</v>
+      </c>
+      <c r="F3">
+        <v>0.06</v>
+      </c>
+      <c r="G3">
+        <v>0.04</v>
+      </c>
+      <c r="H3">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="I3">
+        <v>0.08</v>
+      </c>
+      <c r="J3">
+        <v>0.06</v>
+      </c>
+      <c r="K3">
+        <v>0.08</v>
+      </c>
+      <c r="L3">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4">
+        <v>2146.71</v>
+      </c>
+      <c r="C4">
+        <v>768.77</v>
+      </c>
+      <c r="D4">
+        <v>783.24</v>
+      </c>
+      <c r="E4">
+        <v>837.9400000000001</v>
+      </c>
+      <c r="F4">
+        <v>725.38</v>
+      </c>
+      <c r="G4">
+        <v>625.51</v>
+      </c>
+      <c r="H4">
+        <v>891.23</v>
+      </c>
+      <c r="I4">
+        <v>1057.31</v>
+      </c>
+      <c r="J4">
+        <v>771.48</v>
+      </c>
+      <c r="K4">
+        <v>737.61</v>
+      </c>
+      <c r="L4">
+        <v>968.3099999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B5">
+        <v>0.02</v>
+      </c>
+      <c r="C5">
+        <v>0.04</v>
+      </c>
+      <c r="D5">
+        <v>0.04</v>
+      </c>
+      <c r="E5">
+        <v>0.04</v>
+      </c>
+      <c r="F5">
+        <v>0.03</v>
+      </c>
+      <c r="G5">
+        <v>0.05</v>
+      </c>
+      <c r="H5">
+        <v>0.03</v>
+      </c>
+      <c r="I5">
+        <v>0.03</v>
+      </c>
+      <c r="J5">
+        <v>0.03</v>
+      </c>
+      <c r="K5">
+        <v>0.02</v>
+      </c>
+      <c r="L5">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="A6" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B6">
+        <v>37526.73</v>
+      </c>
+      <c r="C6">
+        <v>5569.52</v>
+      </c>
+      <c r="D6">
+        <v>5658</v>
+      </c>
+      <c r="E6">
+        <v>6110.47</v>
+      </c>
+      <c r="F6">
+        <v>5985.47</v>
+      </c>
+      <c r="G6">
+        <v>3576.46</v>
+      </c>
+      <c r="H6">
+        <v>8085.04</v>
+      </c>
+      <c r="I6">
+        <v>9506.389999999999</v>
+      </c>
+      <c r="J6">
+        <v>6832.08</v>
+      </c>
+      <c r="K6">
+        <v>8363.860000000001</v>
+      </c>
+      <c r="L6">
+        <v>9319.969999999999</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="A7" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B7">
+        <v>0.16</v>
+      </c>
+      <c r="C7">
+        <v>0.02</v>
+      </c>
+      <c r="D7">
+        <v>0.02</v>
+      </c>
+      <c r="E7">
+        <v>0.03</v>
+      </c>
+      <c r="F7">
+        <v>0.03</v>
+      </c>
+      <c r="G7">
+        <v>0.02</v>
+      </c>
+      <c r="H7">
+        <v>0.03</v>
+      </c>
+      <c r="I7">
+        <v>0.04</v>
+      </c>
+      <c r="J7">
+        <v>0.03</v>
+      </c>
+      <c r="K7">
+        <v>0.04</v>
+      </c>
+      <c r="L7">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="1" t="s">
+        <v>383</v>
+      </c>
+      <c r="B8">
+        <v>1527.62</v>
+      </c>
+      <c r="C8">
+        <v>539.46</v>
+      </c>
+      <c r="D8">
+        <v>626.58</v>
+      </c>
+      <c r="E8">
+        <v>592.17</v>
+      </c>
+      <c r="F8">
+        <v>534.65</v>
+      </c>
+      <c r="G8">
+        <v>409.07</v>
+      </c>
+      <c r="H8">
+        <v>740.35</v>
+      </c>
+      <c r="I8">
+        <v>781.27</v>
+      </c>
+      <c r="J8">
+        <v>587.46</v>
+      </c>
+      <c r="K8">
+        <v>564.73</v>
+      </c>
+      <c r="L8">
+        <v>696.39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B9">
+        <v>0.02</v>
+      </c>
+      <c r="C9">
+        <v>0.06</v>
+      </c>
+      <c r="D9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="E9">
+        <v>0.06</v>
+      </c>
+      <c r="F9">
+        <v>0.05</v>
+      </c>
+      <c r="G9">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="H9">
+        <v>0.06</v>
+      </c>
+      <c r="I9">
+        <v>0.05</v>
+      </c>
+      <c r="J9">
+        <v>0.05</v>
+      </c>
+      <c r="K9">
+        <v>0.04</v>
+      </c>
+      <c r="L9">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="B10">
+        <v>14116.03</v>
+      </c>
+      <c r="C10">
+        <v>2053.29</v>
+      </c>
+      <c r="D10">
+        <v>1683.75</v>
+      </c>
+      <c r="E10">
+        <v>2109.82</v>
+      </c>
+      <c r="F10">
+        <v>2049.14</v>
+      </c>
+      <c r="G10">
+        <v>985.41</v>
+      </c>
+      <c r="H10">
+        <v>2593.41</v>
+      </c>
+      <c r="I10">
+        <v>2826.87</v>
+      </c>
+      <c r="J10">
+        <v>2337.39</v>
+      </c>
+      <c r="K10">
+        <v>2964.88</v>
+      </c>
+      <c r="L10">
+        <v>4349.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12">
+      <c r="A11" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B11">
+        <v>0.06</v>
+      </c>
+      <c r="C11">
+        <v>0.01</v>
+      </c>
+      <c r="D11">
+        <v>0.01</v>
+      </c>
+      <c r="E11">
+        <v>0.01</v>
+      </c>
+      <c r="F11">
+        <v>0.01</v>
+      </c>
+      <c r="G11">
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <v>0.01</v>
+      </c>
+      <c r="I11">
+        <v>0.01</v>
+      </c>
+      <c r="J11">
+        <v>0.01</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+      <c r="L11">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B12">
+        <v>1049.99</v>
+      </c>
+      <c r="C12">
+        <v>319.47</v>
+      </c>
+      <c r="D12">
+        <v>259.36</v>
+      </c>
+      <c r="E12">
+        <v>374.06</v>
+      </c>
+      <c r="F12">
+        <v>319.89</v>
+      </c>
+      <c r="G12">
+        <v>217.93</v>
+      </c>
+      <c r="H12">
+        <v>418.59</v>
+      </c>
+      <c r="I12">
+        <v>351.87</v>
+      </c>
+      <c r="J12">
+        <v>333.71</v>
+      </c>
+      <c r="K12">
+        <v>375.87</v>
+      </c>
+      <c r="L12">
+        <v>512.75</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="A13" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B13">
+        <v>0.05</v>
+      </c>
+      <c r="C13">
+        <v>0.09</v>
+      </c>
+      <c r="D13">
+        <v>0.09</v>
+      </c>
+      <c r="E13">
+        <v>0.11</v>
+      </c>
+      <c r="F13">
+        <v>0.09</v>
+      </c>
+      <c r="G13">
+        <v>0.13</v>
+      </c>
+      <c r="H13">
+        <v>0.1</v>
+      </c>
+      <c r="I13">
+        <v>0.08</v>
+      </c>
+      <c r="J13">
+        <v>0.09</v>
+      </c>
+      <c r="K13">
+        <v>0.08</v>
+      </c>
+      <c r="L13">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" s="1" t="s">
+        <v>389</v>
+      </c>
+      <c r="B14">
+        <v>8721.030000000001</v>
+      </c>
+      <c r="C14">
+        <v>1332.46</v>
+      </c>
+      <c r="D14">
+        <v>1263.04</v>
+      </c>
+      <c r="E14">
+        <v>1658.17</v>
+      </c>
+      <c r="F14">
+        <v>1384.95</v>
+      </c>
+      <c r="G14">
+        <v>921.5</v>
+      </c>
+      <c r="H14">
+        <v>1674.56</v>
+      </c>
+      <c r="I14">
+        <v>1907.38</v>
+      </c>
+      <c r="J14">
+        <v>1482.16</v>
+      </c>
+      <c r="K14">
+        <v>1980.73</v>
+      </c>
+      <c r="L14">
+        <v>2466.01</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" s="1" t="s">
+        <v>390</v>
+      </c>
+      <c r="B15">
+        <v>0.04</v>
+      </c>
+      <c r="C15">
+        <v>0.01</v>
+      </c>
+      <c r="D15">
+        <v>0.01</v>
+      </c>
+      <c r="E15">
+        <v>0.01</v>
+      </c>
+      <c r="F15">
+        <v>0.01</v>
+      </c>
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0.01</v>
+      </c>
+      <c r="I15">
+        <v>0.01</v>
+      </c>
+      <c r="J15">
+        <v>0.01</v>
+      </c>
+      <c r="K15">
+        <v>0.01</v>
+      </c>
+      <c r="L15">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12">
+      <c r="A16" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B16">
+        <v>943.84</v>
+      </c>
+      <c r="C16">
+        <v>336.35</v>
+      </c>
+      <c r="D16">
+        <v>240.45</v>
+      </c>
+      <c r="E16">
+        <v>310.65</v>
+      </c>
+      <c r="F16">
+        <v>275.92</v>
+      </c>
+      <c r="G16">
+        <v>271.23</v>
+      </c>
+      <c r="H16">
+        <v>306.24</v>
+      </c>
+      <c r="I16">
+        <v>507.37</v>
+      </c>
+      <c r="J16">
+        <v>310.6</v>
+      </c>
+      <c r="K16">
+        <v>301.56</v>
+      </c>
+      <c r="L16">
+        <v>392.43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12">
+      <c r="A17" s="1" t="s">
+        <v>392</v>
+      </c>
+      <c r="B17">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C17">
+        <v>0.15</v>
+      </c>
+      <c r="D17">
+        <v>0.12</v>
+      </c>
+      <c r="E17">
+        <v>0.11</v>
+      </c>
+      <c r="F17">
+        <v>0.12</v>
+      </c>
+      <c r="G17">
+        <v>0.18</v>
+      </c>
+      <c r="H17">
+        <v>0.11</v>
+      </c>
+      <c r="I17">
+        <v>0.16</v>
+      </c>
+      <c r="J17">
+        <v>0.13</v>
+      </c>
+      <c r="K17">
+        <v>0.09</v>
+      </c>
+      <c r="L17">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="A18" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B18">
+        <v>5306.77</v>
+      </c>
+      <c r="C18">
+        <v>850.5700000000001</v>
+      </c>
+      <c r="D18">
+        <v>1041.66</v>
+      </c>
+      <c r="E18">
+        <v>807.58</v>
+      </c>
+      <c r="F18">
+        <v>927.4</v>
+      </c>
+      <c r="G18">
+        <v>578.01</v>
+      </c>
+      <c r="H18">
+        <v>1390.8</v>
+      </c>
+      <c r="I18">
+        <v>1076.98</v>
+      </c>
+      <c r="J18">
+        <v>961.65</v>
+      </c>
+      <c r="K18">
+        <v>1396.31</v>
+      </c>
+      <c r="L18">
+        <v>1438.28</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="A19" s="1" t="s">
+        <v>394</v>
+      </c>
+      <c r="B19">
+        <v>0.02</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0.01</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0.01</v>
+      </c>
+      <c r="L19">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="A20" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20">
+        <v>657.97</v>
+      </c>
+      <c r="C20">
+        <v>212.62</v>
+      </c>
+      <c r="D20">
+        <v>255.78</v>
+      </c>
+      <c r="E20">
+        <v>214.75</v>
+      </c>
+      <c r="F20">
+        <v>226.98</v>
+      </c>
+      <c r="G20">
+        <v>214.69</v>
+      </c>
+      <c r="H20">
+        <v>300.48</v>
+      </c>
+      <c r="I20">
+        <v>291.03</v>
+      </c>
+      <c r="J20">
+        <v>263.49</v>
+      </c>
+      <c r="K20">
+        <v>337.06</v>
+      </c>
+      <c r="L20">
+        <v>307.06</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="A21" s="1" t="s">
+        <v>396</v>
+      </c>
+      <c r="B21">
+        <v>0.08</v>
+      </c>
+      <c r="C21">
+        <v>0.15</v>
+      </c>
+      <c r="D21">
+        <v>0.15</v>
+      </c>
+      <c r="E21">
+        <v>0.16</v>
+      </c>
+      <c r="F21">
+        <v>0.15</v>
+      </c>
+      <c r="G21">
+        <v>0.23</v>
+      </c>
+      <c r="H21">
+        <v>0.13</v>
+      </c>
+      <c r="I21">
+        <v>0.16</v>
+      </c>
+      <c r="J21">
+        <v>0.17</v>
+      </c>
+      <c r="K21">
+        <v>0.15</v>
+      </c>
+      <c r="L21">
+        <v>0.13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="A22" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B22">
+        <v>16925.43</v>
+      </c>
+      <c r="C22">
+        <v>3349.34</v>
+      </c>
+      <c r="D22">
+        <v>2988.28</v>
+      </c>
+      <c r="E22">
+        <v>3718.08</v>
+      </c>
+      <c r="F22">
+        <v>3898.67</v>
+      </c>
+      <c r="G22">
+        <v>2359.6</v>
+      </c>
+      <c r="H22">
+        <v>3071.04</v>
+      </c>
+      <c r="I22">
+        <v>3650.47</v>
+      </c>
+      <c r="J22">
+        <v>2736.77</v>
+      </c>
+      <c r="K22">
+        <v>3493.19</v>
+      </c>
+      <c r="L22">
+        <v>4476.13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="A23" s="1" t="s">
+        <v>398</v>
+      </c>
+      <c r="B23">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="C23">
+        <v>0.01</v>
+      </c>
+      <c r="D23">
+        <v>0.01</v>
+      </c>
+      <c r="E23">
+        <v>0.02</v>
+      </c>
+      <c r="F23">
+        <v>0.02</v>
+      </c>
+      <c r="G23">
+        <v>0.01</v>
+      </c>
+      <c r="H23">
+        <v>0.01</v>
+      </c>
+      <c r="I23">
+        <v>0.02</v>
+      </c>
+      <c r="J23">
+        <v>0.01</v>
+      </c>
+      <c r="K23">
+        <v>0.01</v>
+      </c>
+      <c r="L23">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="A24" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B24">
+        <v>1244.84</v>
+      </c>
+      <c r="C24">
+        <v>428.29</v>
+      </c>
+      <c r="D24">
+        <v>427.65</v>
+      </c>
+      <c r="E24">
+        <v>500.99</v>
+      </c>
+      <c r="F24">
+        <v>500.92</v>
+      </c>
+      <c r="G24">
+        <v>327.05</v>
+      </c>
+      <c r="H24">
+        <v>398.74</v>
+      </c>
+      <c r="I24">
+        <v>467.72</v>
+      </c>
+      <c r="J24">
+        <v>392.21</v>
+      </c>
+      <c r="K24">
+        <v>401.88</v>
+      </c>
+      <c r="L24">
+        <v>533.66</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="A25" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="B25">
+        <v>0.04</v>
+      </c>
+      <c r="C25">
+        <v>0.08</v>
+      </c>
+      <c r="D25">
+        <v>0.09</v>
+      </c>
+      <c r="E25">
+        <v>0.08</v>
+      </c>
+      <c r="F25">
+        <v>0.08</v>
+      </c>
+      <c r="G25">
+        <v>0.08</v>
+      </c>
+      <c r="H25">
+        <v>0.08</v>
+      </c>
+      <c r="I25">
+        <v>0.08</v>
+      </c>
+      <c r="J25">
+        <v>0.09</v>
+      </c>
+      <c r="K25">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="L25">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="A26" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B26">
+        <v>399.83</v>
+      </c>
+      <c r="C26">
+        <v>27.83</v>
+      </c>
+      <c r="D26">
+        <v>113.25</v>
+      </c>
+      <c r="E26">
+        <v>47.71</v>
+      </c>
+      <c r="F26">
+        <v>126.23</v>
+      </c>
+      <c r="G26">
+        <v>43.37</v>
+      </c>
+      <c r="H26">
+        <v>55.51</v>
+      </c>
+      <c r="I26">
+        <v>223.84</v>
+      </c>
+      <c r="J26">
+        <v>139.52</v>
+      </c>
+      <c r="K26">
+        <v>157.67</v>
+      </c>
+      <c r="L26">
+        <v>98.23</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="A27" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>0</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+      <c r="I27">
+        <v>0</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>0</v>
+      </c>
+      <c r="L27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="A28" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B28">
+        <v>188.85</v>
+      </c>
+      <c r="C28">
+        <v>86.3</v>
+      </c>
+      <c r="D28">
+        <v>104.65</v>
+      </c>
+      <c r="E28">
+        <v>91.06</v>
+      </c>
+      <c r="F28">
+        <v>104.91</v>
+      </c>
+      <c r="G28">
+        <v>93.69</v>
+      </c>
+      <c r="H28">
+        <v>85.31999999999999</v>
+      </c>
+      <c r="I28">
+        <v>147.38</v>
+      </c>
+      <c r="J28">
+        <v>129.7</v>
+      </c>
+      <c r="K28">
+        <v>113.55</v>
+      </c>
+      <c r="L28">
+        <v>102.13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="A29" s="1" t="s">
+        <v>404</v>
+      </c>
+      <c r="B29">
+        <v>0.29</v>
+      </c>
+      <c r="C29">
+        <v>1.89</v>
+      </c>
+      <c r="D29">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="E29">
+        <v>1.16</v>
+      </c>
+      <c r="F29">
+        <v>0.51</v>
+      </c>
+      <c r="G29">
+        <v>1.31</v>
+      </c>
+      <c r="H29">
+        <v>0.93</v>
+      </c>
+      <c r="I29">
+        <v>0.4</v>
+      </c>
+      <c r="J29">
+        <v>0.57</v>
+      </c>
+      <c r="K29">
+        <v>0.44</v>
+      </c>
+      <c r="L29">
+        <v>0.63</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L37"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -8541,7 +9678,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>377</v>
+        <v>405</v>
       </c>
       <c r="B2">
         <v>36210.15</v>
@@ -8579,7 +9716,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>378</v>
+        <v>406</v>
       </c>
       <c r="B3">
         <v>0.24</v>
@@ -8617,7 +9754,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>379</v>
+        <v>407</v>
       </c>
       <c r="B4">
         <v>1396.81</v>
@@ -8655,7 +9792,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>380</v>
+        <v>408</v>
       </c>
       <c r="B5">
         <v>0.02</v>
@@ -8693,7 +9830,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>381</v>
+        <v>409</v>
       </c>
       <c r="B6">
         <v>17479.68</v>
@@ -8731,7 +9868,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>382</v>
+        <v>410</v>
       </c>
       <c r="B7">
         <v>0.12</v>
@@ -8769,7 +9906,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>383</v>
+        <v>411</v>
       </c>
       <c r="B8">
         <v>993.61</v>
@@ -8807,7 +9944,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>384</v>
+        <v>412</v>
       </c>
       <c r="B9">
         <v>0.03</v>
@@ -8845,7 +9982,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>385</v>
+        <v>413</v>
       </c>
       <c r="B10">
         <v>7721.54</v>
@@ -8883,7 +10020,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>386</v>
+        <v>414</v>
       </c>
       <c r="B11">
         <v>0.05</v>
@@ -8921,7 +10058,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>387</v>
+        <v>415</v>
       </c>
       <c r="B12">
         <v>660.84</v>
@@ -8959,7 +10096,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>388</v>
+        <v>416</v>
       </c>
       <c r="B13">
         <v>0.05</v>
@@ -8997,7 +10134,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B14">
         <v>3471.95</v>
@@ -9035,7 +10172,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="B15">
         <v>0.02</v>
@@ -9073,7 +10210,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="B16">
         <v>454.05</v>
@@ -9111,7 +10248,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B17">
         <v>0.08</v>
@@ -9149,7 +10286,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B18">
         <v>1793.21</v>
@@ -9187,7 +10324,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B19">
         <v>0.01</v>
@@ -9225,7 +10362,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B20">
         <v>341.04</v>
@@ -9263,7 +10400,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B21">
         <v>0.12</v>
@@ -9301,7 +10438,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B22">
         <v>1692.23</v>
@@ -9339,7 +10476,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B23">
         <v>0.01</v>
@@ -9377,7 +10514,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B24">
         <v>403.93</v>
@@ -9415,7 +10552,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B25">
         <v>0.15</v>
@@ -9453,7 +10590,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B26">
         <v>985.4299999999999</v>
@@ -9491,7 +10628,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B27">
         <v>0.01</v>
@@ -9529,7 +10666,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B28">
         <v>268.68</v>
@@ -9567,7 +10704,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B29">
         <v>0.17</v>
@@ -9605,7 +10742,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B30">
         <v>3066.1</v>
@@ -9643,7 +10780,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B31">
         <v>0.02</v>
@@ -9681,7 +10818,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B32">
         <v>521.79</v>
@@ -9719,7 +10856,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B33">
         <v>0.1</v>
@@ -9757,7 +10894,7 @@
     </row>
     <row r="34" spans="1:12">
       <c r="A34" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B34">
         <v>361.34</v>
@@ -9795,7 +10932,7 @@
     </row>
     <row r="35" spans="1:12">
       <c r="A35" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -9833,7 +10970,7 @@
     </row>
     <row r="36" spans="1:12">
       <c r="A36" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B36">
         <v>188.62</v>
@@ -9871,7 +11008,7 @@
     </row>
     <row r="37" spans="1:12">
       <c r="A37" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B37">
         <v>0.32</v>
@@ -9912,7 +11049,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L41"/>
   <sheetViews>
@@ -9957,7 +11094,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="B2">
         <v>37867.52</v>
@@ -9995,7 +11132,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>414</v>
+        <v>422</v>
       </c>
       <c r="B3">
         <v>0.14</v>
@@ -10033,7 +11170,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>415</v>
+        <v>423</v>
       </c>
       <c r="B4">
         <v>1492.97</v>
@@ -10071,7 +11208,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="B5">
         <v>0.02</v>
@@ -11325,7 +12462,7 @@
     </row>
     <row r="38" spans="1:12">
       <c r="A38" s="1" t="s">
-        <v>417</v>
+        <v>425</v>
       </c>
       <c r="B38">
         <v>1684.14</v>
@@ -11363,7 +12500,7 @@
     </row>
     <row r="39" spans="1:12">
       <c r="A39" s="1" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="B39">
         <v>0.01</v>
@@ -11401,7 +12538,7 @@
     </row>
     <row r="40" spans="1:12">
       <c r="A40" s="1" t="s">
-        <v>419</v>
+        <v>427</v>
       </c>
       <c r="B40">
         <v>329.55</v>
@@ -11439,7 +12576,7 @@
     </row>
     <row r="41" spans="1:12">
       <c r="A41" s="1" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="B41">
         <v>0.12</v>
@@ -11480,7 +12617,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L33"/>
   <sheetViews>
@@ -11525,7 +12662,7 @@
     </row>
     <row r="2" spans="1:12">
       <c r="A2" s="1" t="s">
-        <v>421</v>
+        <v>429</v>
       </c>
       <c r="B2">
         <v>37418.86</v>
@@ -11563,7 +12700,7 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="1" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="B3">
         <v>0.15</v>
@@ -11601,7 +12738,7 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" s="1" t="s">
-        <v>423</v>
+        <v>431</v>
       </c>
       <c r="B4">
         <v>1491.56</v>
@@ -11639,7 +12776,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="A5" s="1" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="B5">
         <v>0.02</v>
@@ -11677,7 +12814,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="A6" s="1" t="s">
-        <v>425</v>
+        <v>433</v>
       </c>
       <c r="B6">
         <v>4975.35</v>
@@ -11715,7 +12852,7 @@
     </row>
     <row r="7" spans="1:12">
       <c r="A7" s="1" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="B7">
         <v>0.02</v>
@@ -11753,7 +12890,7 @@
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="1" t="s">
-        <v>427</v>
+        <v>435</v>
       </c>
       <c r="B8">
         <v>701.9</v>
@@ -11791,7 +12928,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="1" t="s">
-        <v>428</v>
+        <v>436</v>
       </c>
       <c r="B9">
         <v>0.09</v>
@@ -11829,7 +12966,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="1" t="s">
-        <v>389</v>
+        <v>417</v>
       </c>
       <c r="B10">
         <v>4873.36</v>
@@ -11867,7 +13004,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="A11" s="1" t="s">
-        <v>390</v>
+        <v>418</v>
       </c>
       <c r="B11">
         <v>0.02</v>
@@ -11905,7 +13042,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="A12" s="1" t="s">
-        <v>391</v>
+        <v>419</v>
       </c>
       <c r="B12">
         <v>528.1900000000001</v>
@@ -11943,7 +13080,7 @@
     </row>
     <row r="13" spans="1:12">
       <c r="A13" s="1" t="s">
-        <v>392</v>
+        <v>420</v>
       </c>
       <c r="B13">
         <v>0.07000000000000001</v>
@@ -11981,7 +13118,7 @@
     </row>
     <row r="14" spans="1:12">
       <c r="A14" s="1" t="s">
-        <v>393</v>
+        <v>385</v>
       </c>
       <c r="B14">
         <v>5510.1</v>
@@ -12019,7 +13156,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="A15" s="1" t="s">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="B15">
         <v>0.02</v>
@@ -12057,7 +13194,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
       <c r="B16">
         <v>719.4299999999999</v>
@@ -12095,7 +13232,7 @@
     </row>
     <row r="17" spans="1:12">
       <c r="A17" s="1" t="s">
-        <v>396</v>
+        <v>388</v>
       </c>
       <c r="B17">
         <v>0.08</v>
@@ -12133,7 +13270,7 @@
     </row>
     <row r="18" spans="1:12">
       <c r="A18" s="1" t="s">
-        <v>397</v>
+        <v>389</v>
       </c>
       <c r="B18">
         <v>4366.23</v>
@@ -12171,7 +13308,7 @@
     </row>
     <row r="19" spans="1:12">
       <c r="A19" s="1" t="s">
-        <v>398</v>
+        <v>390</v>
       </c>
       <c r="B19">
         <v>0.02</v>
@@ -12209,7 +13346,7 @@
     </row>
     <row r="20" spans="1:12">
       <c r="A20" s="1" t="s">
-        <v>399</v>
+        <v>391</v>
       </c>
       <c r="B20">
         <v>545</v>
@@ -12247,7 +13384,7 @@
     </row>
     <row r="21" spans="1:12">
       <c r="A21" s="1" t="s">
-        <v>400</v>
+        <v>392</v>
       </c>
       <c r="B21">
         <v>0.08</v>
@@ -12285,7 +13422,7 @@
     </row>
     <row r="22" spans="1:12">
       <c r="A22" s="1" t="s">
-        <v>401</v>
+        <v>393</v>
       </c>
       <c r="B22">
         <v>3805.94</v>
@@ -12323,7 +13460,7 @@
     </row>
     <row r="23" spans="1:12">
       <c r="A23" s="1" t="s">
-        <v>402</v>
+        <v>394</v>
       </c>
       <c r="B23">
         <v>0.01</v>
@@ -12361,7 +13498,7 @@
     </row>
     <row r="24" spans="1:12">
       <c r="A24" s="1" t="s">
-        <v>403</v>
+        <v>395</v>
       </c>
       <c r="B24">
         <v>544.33</v>
@@ -12399,7 +13536,7 @@
     </row>
     <row r="25" spans="1:12">
       <c r="A25" s="1" t="s">
-        <v>404</v>
+        <v>396</v>
       </c>
       <c r="B25">
         <v>0.09</v>
@@ -12437,7 +13574,7 @@
     </row>
     <row r="26" spans="1:12">
       <c r="A26" s="1" t="s">
-        <v>405</v>
+        <v>397</v>
       </c>
       <c r="B26">
         <v>13887.89</v>
@@ -12475,7 +13612,7 @@
     </row>
     <row r="27" spans="1:12">
       <c r="A27" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="B27">
         <v>0.05</v>
@@ -12513,7 +13650,7 @@
     </row>
     <row r="28" spans="1:12">
       <c r="A28" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="B28">
         <v>1000.92</v>
@@ -12551,7 +13688,7 @@
     </row>
     <row r="29" spans="1:12">
       <c r="A29" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
       <c r="B29">
         <v>0.04</v>
@@ -12589,7 +13726,7 @@
     </row>
     <row r="30" spans="1:12">
       <c r="A30" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="B30">
         <v>2132.8</v>
@@ -12627,7 +13764,7 @@
     </row>
     <row r="31" spans="1:12">
       <c r="A31" s="1" t="s">
-        <v>410</v>
+        <v>402</v>
       </c>
       <c r="B31">
         <v>0.01</v>
@@ -12665,7 +13802,7 @@
     </row>
     <row r="32" spans="1:12">
       <c r="A32" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
       <c r="B32">
         <v>361.64</v>
@@ -12703,7 +13840,7 @@
     </row>
     <row r="33" spans="1:12">
       <c r="A33" s="1" t="s">
-        <v>412</v>
+        <v>404</v>
       </c>
       <c r="B33">
         <v>0.1</v>
